--- a/supplementalData/Table S9.xlsx
+++ b/supplementalData/Table S9.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1778A9-8F0C-7941-BAC9-DEFBF388E40F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="4560" windowWidth="25640" windowHeight="14440"/>
+    <workbookView xWindow="5180" yWindow="4560" windowWidth="25640" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S9-AsmDiffAfterPolishing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Pilon x6</t>
   </si>
@@ -57,9 +58,6 @@
   </si>
   <si>
     <t>D. mauritiana</t>
-  </si>
-  <si>
-    <t>D. kikkawai</t>
   </si>
   <si>
     <t>D. eugracilis</t>
@@ -110,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -518,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,12 +531,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -548,33 +546,33 @@
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>756633</v>
@@ -594,10 +592,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>-1926055</v>
@@ -617,10 +615,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>3271449</v>
@@ -640,10 +638,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>2611992</v>
@@ -663,10 +661,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>3279939</v>
@@ -686,114 +684,114 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>2968610</v>
+        <v>2010060</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E10" s="2">
-        <v>19408</v>
+        <v>77805</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>2010060</v>
+        <v>6032161</v>
       </c>
       <c r="D11" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>77805</v>
+        <v>172967</v>
       </c>
       <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
         <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>6032161</v>
+        <v>-1300240</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="2">
-        <v>172967</v>
+        <v>-23501</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>-1300240</v>
+        <v>-1200503</v>
       </c>
       <c r="D13" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>-23501</v>
+        <v>-14942</v>
       </c>
       <c r="F13" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>-1200503</v>
+        <v>4435806</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="2">
-        <v>-14942</v>
+        <v>255406</v>
       </c>
       <c r="F14" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -801,19 +799,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>4435806</v>
+        <v>1438706</v>
       </c>
       <c r="D15" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>255406</v>
+        <v>84576</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -824,19 +822,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>1438706</v>
+        <v>3533750</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>84576</v>
+        <v>91455</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -847,164 +845,168 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>3533750</v>
+        <v>-1609696</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17" s="2">
-        <v>91455</v>
+        <v>-16708</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-1609696</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-16708</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
+      <c r="A18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1955491</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>57080</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1955491</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>57080</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>2</v>
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C5:C18)</f>
+        <v>1663535.2142857143</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="2">
+        <f>AVERAGE(E5:E18)</f>
+        <v>74220.428571428565</v>
+      </c>
+      <c r="F19" s="2">
+        <f>AVERAGE(F5:F18)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(G5:G18)</f>
+        <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2036430.125</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>68930.5625</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.3125</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-1205304</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3587</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>-1205304</v>
+        <v>-3150014</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>3587</v>
+        <v>35675</v>
       </c>
       <c r="F22" s="2">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>-3150014</v>
+        <v>781146</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>35675</v>
+        <v>18871</v>
       </c>
       <c r="F23" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>781146</v>
+        <v>1751938</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>18871</v>
+        <v>249883</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -1015,22 +1017,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>1751938</v>
+        <v>1019054</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>249883</v>
+        <v>65306</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1038,22 +1040,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>1019054</v>
+        <v>1122017</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>65306</v>
+        <v>25400</v>
       </c>
       <c r="F26" s="2">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -1061,19 +1063,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>1436494</v>
+        <v>3593808</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>14290</v>
+        <v>140193</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -1084,91 +1086,91 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>1122017</v>
+        <v>-2134496</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>25400</v>
+        <v>-32012</v>
       </c>
       <c r="F28" s="2">
         <v>-1</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>3593808</v>
+        <v>-1665920</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>140193</v>
+        <v>-19932</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>-2134496</v>
+        <v>2836218</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>-32012</v>
+        <v>227708</v>
       </c>
       <c r="F30" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>-1665920</v>
+        <v>166761</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>-19932</v>
+        <v>206120</v>
       </c>
       <c r="F31" s="2">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -1176,19 +1178,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>2836218</v>
+        <v>1273862</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>227708</v>
+        <v>57007</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -1199,117 +1201,75 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>166761</v>
+        <v>-3117370</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>206120</v>
+        <v>-14293</v>
       </c>
       <c r="F33" s="2">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1273862</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>57007</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
+      <c r="A34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>919564</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>40052</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>3</v>
+      <c r="A35" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>-3117370</v>
+        <f>AVERAGE(C21:C34)</f>
+        <v>156518.85714285713</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>-14293</v>
+        <f>AVERAGE(E21:E34)</f>
+        <v>71683.21428571429</v>
       </c>
       <c r="F35" s="2">
-        <v>-6</v>
+        <f>AVERAGE(F21:F34)</f>
+        <v>-2</v>
       </c>
       <c r="G35" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>919564</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>40052</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>246418</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>64357.9375</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-1.625</v>
-      </c>
-      <c r="G37" s="2">
-        <v>-0.1875</v>
+        <f>AVERAGE(G21:G34)</f>
+        <v>-0.21428571428571427</v>
       </c>
     </row>
   </sheetData>
